--- a/data/trans_dic/P1404-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1404-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.002388200305292354</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.006959993935966632</v>
+        <v>0.00695999393596663</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001871164260390986</v>
+        <v>0.001885445227252258</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003095653767611739</v>
+        <v>0.00301349720618008</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00215099061290448</v>
+        <v>0.001974394493509756</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001464318755980779</v>
+        <v>0.001416447922436089</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01957473728472333</v>
+        <v>0.01848508455586158</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01404736795249284</v>
+        <v>0.01258450655195099</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.01382550018189355</v>
+        <v>0.01328799998236967</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01363417088788395</v>
+        <v>0.01531476743867189</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01238478028770535</v>
+        <v>0.009117710354834661</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04469990942700113</v>
+        <v>0.0420497844046072</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01143523781287653</v>
+        <v>0.0114927880250037</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.006880400591694025</v>
+        <v>0.007706266973362924</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01032801658541211</v>
+        <v>0.007649953364373728</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01940925119637596</v>
+        <v>0.01886181522956482</v>
       </c>
     </row>
     <row r="7">
@@ -836,40 +836,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002527471617226879</v>
+        <v>0.002534114737418532</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01250016732898476</v>
+        <v>0.01377350800449713</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01074201724182532</v>
+        <v>0.01056623610296973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003343617653796053</v>
+        <v>0.003438084066956617</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009220218600407155</v>
+        <v>0.008158369577193767</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005911828328257774</v>
+        <v>0.005253346801521138</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007007725787664458</v>
+        <v>0.0069954146986765</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0113153225614874</v>
+        <v>0.01127537400593447</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.00676378514969138</v>
+        <v>0.006535870550385624</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01182325274123579</v>
+        <v>0.01193009067114757</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01101683772251435</v>
+        <v>0.01115143823142734</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.009710122485815358</v>
+        <v>0.009201103412587234</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01434500240052038</v>
+        <v>0.01434905973639796</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03813511253285413</v>
+        <v>0.03801790822276961</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03827894250598091</v>
+        <v>0.03615273932099602</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02959653520160454</v>
+        <v>0.03053853364634713</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0329585559067558</v>
+        <v>0.03156621565505661</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.027330659326462</v>
+        <v>0.02722567843318354</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02714588406423137</v>
+        <v>0.02833678860578774</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03641172406018724</v>
+        <v>0.03552675354477675</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0194469813246749</v>
+        <v>0.01915180638228316</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.028138296243113</v>
+        <v>0.02843401341703064</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02837610853828543</v>
+        <v>0.02700434827515937</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02727630357931782</v>
+        <v>0.02839873165511832</v>
       </c>
     </row>
     <row r="10">
@@ -949,7 +949,7 @@
         <v>0.02695300459257007</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.01827808629931771</v>
+        <v>0.01827808629931772</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03992126069930416</v>
@@ -961,7 +961,7 @@
         <v>0.03633082590955265</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03453192274214489</v>
+        <v>0.03453192274214491</v>
       </c>
     </row>
     <row r="11">
@@ -972,40 +972,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02901882501716572</v>
+        <v>0.03023739890779361</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04079723543314025</v>
+        <v>0.0418214830610945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03032742566856953</v>
+        <v>0.03180983609534235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03442843202399293</v>
+        <v>0.03375194229451527</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02422707294571495</v>
+        <v>0.02372241265170453</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02621526003706058</v>
+        <v>0.02629597064045684</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0166550076785244</v>
+        <v>0.01692844206760607</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01092624458515304</v>
+        <v>0.01086593452839887</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0297959163793411</v>
+        <v>0.02993126346392573</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03742696277340381</v>
+        <v>0.03822455951787341</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02741316899260778</v>
+        <v>0.02647598041261763</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0255836684176186</v>
+        <v>0.02517687246150075</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06220920537894166</v>
+        <v>0.06391877777534824</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07670469977130241</v>
+        <v>0.07991439061782848</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06498164001024313</v>
+        <v>0.0658070535890916</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07272342719820209</v>
+        <v>0.07275730656726495</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05380548231487393</v>
+        <v>0.05295989501346238</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.056047134920369</v>
+        <v>0.05724691888656801</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04096945210208373</v>
+        <v>0.04129227266090998</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.028604778195163</v>
+        <v>0.02855430555565464</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0518947748049083</v>
+        <v>0.05159813275058992</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06092031263428878</v>
+        <v>0.06132212227637393</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04758602884857831</v>
+        <v>0.04685506307847515</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04654203599595259</v>
+        <v>0.0447935559405955</v>
       </c>
     </row>
     <row r="13">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07918455562177106</v>
+        <v>0.07787230859650403</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06862911330536423</v>
+        <v>0.06968657940357671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0763618674324725</v>
+        <v>0.07910934738184087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1129735673006061</v>
+        <v>0.1149106554696725</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06044222691680237</v>
+        <v>0.06036147812935882</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09761021783920448</v>
+        <v>0.09546223429375786</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08414624995853261</v>
+        <v>0.08013147544806674</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08315718262556104</v>
+        <v>0.08335070956997281</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07602845725735669</v>
+        <v>0.07548251158722623</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09034160220319779</v>
+        <v>0.08829015321925658</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08724126240829308</v>
+        <v>0.08702369917540699</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1036988775612295</v>
+        <v>0.1023778845028328</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1348101998673171</v>
+        <v>0.1321413199501391</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1159576025796644</v>
+        <v>0.1216014905701457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1267104380388978</v>
+        <v>0.129567511136121</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1643511673902178</v>
+        <v>0.168908681285034</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1083919923518899</v>
+        <v>0.1077810004691206</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1557187564504103</v>
+        <v>0.1553125506374075</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1327153729408541</v>
+        <v>0.1315875191498509</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.119230374902645</v>
+        <v>0.1183669041273417</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1114233995667581</v>
+        <v>0.1114176446927628</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1278876135572428</v>
+        <v>0.1261107287352353</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1212566681470193</v>
+        <v>0.1213816705375344</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1355610728934057</v>
+        <v>0.1361083116829175</v>
       </c>
     </row>
     <row r="16">
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1444868759848875</v>
+        <v>0.1401694379372625</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1571188794584916</v>
+        <v>0.1543554907775089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1605257868315096</v>
+        <v>0.1646946919266371</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.198720328158352</v>
+        <v>0.2007346097434117</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1750995365276657</v>
+        <v>0.1732845646230159</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2150671551330319</v>
+        <v>0.215345891457626</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2020582938515363</v>
+        <v>0.2037726533151142</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2222615336228563</v>
+        <v>0.2236227910265264</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1683923789336974</v>
+        <v>0.1657578697839229</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1972474191854931</v>
+        <v>0.199821518120841</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1911568337587325</v>
+        <v>0.1938623568023319</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.219166197453482</v>
+        <v>0.2190707619741369</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2168928227665995</v>
+        <v>0.2159088684359096</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2396882926775412</v>
+        <v>0.2338723818347218</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2393459480094716</v>
+        <v>0.2413159172574448</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2613786348608719</v>
+        <v>0.2643788411318356</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2551905248929761</v>
+        <v>0.2538871060677669</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2980475184171381</v>
+        <v>0.2979550434726668</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.287079231141958</v>
+        <v>0.2827900537664851</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2783022692726646</v>
+        <v>0.279049817118477</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2227239827798482</v>
+        <v>0.2222999082277384</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.258162867343403</v>
+        <v>0.2595152110545217</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2475354115776404</v>
+        <v>0.2507935347592818</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2615238557260108</v>
+        <v>0.2623635207440582</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>0.3107621247008983</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3530901915080787</v>
+        <v>0.3530901915080786</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2418107107424318</v>
@@ -1380,40 +1380,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1553089035088052</v>
+        <v>0.1539457949569251</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3106613031813813</v>
+        <v>0.3080196831333616</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2675229544814774</v>
+        <v>0.2676102695415735</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2606718625208317</v>
+        <v>0.2595366964881023</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2327870175614482</v>
+        <v>0.2360781236198984</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2974439059600198</v>
+        <v>0.2977407367945473</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2624787104946145</v>
+        <v>0.2633379974988583</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3206615231045408</v>
+        <v>0.3217389126895089</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.208442955311633</v>
+        <v>0.2125419469532847</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3172024481923219</v>
+        <v>0.3164609024979332</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2828035301758655</v>
+        <v>0.28040012939732</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3032960511085082</v>
+        <v>0.3036352248857205</v>
       </c>
     </row>
     <row r="21">
@@ -1424,40 +1424,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2432318856769622</v>
+        <v>0.2416188168808462</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.424040398880404</v>
+        <v>0.4252392874751906</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3672000993183062</v>
+        <v>0.3662831667460022</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3361269553094351</v>
+        <v>0.338210526268644</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3269786540589289</v>
+        <v>0.3311588907826479</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4044489568018724</v>
+        <v>0.4037147919443661</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.359790031068692</v>
+        <v>0.3587552132287986</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3870833627611184</v>
+        <v>0.3886423947153459</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2737428186717286</v>
+        <v>0.2730122155295407</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3959274713369451</v>
+        <v>0.395496109994299</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.347857958972971</v>
+        <v>0.347603425855032</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3529865136112498</v>
+        <v>0.3544060749003337</v>
       </c>
     </row>
     <row r="22">
@@ -1493,7 +1493,7 @@
         <v>0.3399727128289535</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.416151561892657</v>
+        <v>0.4161515618926569</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2398307481246101</v>
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1585299592501179</v>
+        <v>0.1568857115767887</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2655160191978593</v>
+        <v>0.2662017307493924</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2628297269011272</v>
+        <v>0.2641975315033151</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3187765961734605</v>
+        <v>0.3223017264514228</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2100717975101589</v>
+        <v>0.2110316746042954</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3076034863685322</v>
+        <v>0.3050104430913904</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.287377197207263</v>
+        <v>0.2891027948879603</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3790975349632942</v>
+        <v>0.3830447743353533</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2018538327754999</v>
+        <v>0.2068742656569229</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3009495071488428</v>
+        <v>0.3048877498072652</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2875023934563434</v>
+        <v>0.2906326488915539</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3672095097980305</v>
+        <v>0.3675376830549318</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2718640860612478</v>
+        <v>0.2701720504531471</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3963257568874577</v>
+        <v>0.3953643968820693</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3685408556416726</v>
+        <v>0.3638824118954944</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.406097245754</v>
+        <v>0.4080010611858042</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3102370172413516</v>
+        <v>0.3149961686502586</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.405162575453379</v>
+        <v>0.4022048279608343</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3946875096082079</v>
+        <v>0.3986573243752136</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4501713066179726</v>
+        <v>0.4509906251546812</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2825056384128319</v>
+        <v>0.2812961924707661</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3838020616121199</v>
+        <v>0.3851491363395221</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3639472759685478</v>
+        <v>0.3672177545188879</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4218951344460123</v>
+        <v>0.422710202130873</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1617,7 @@
         <v>0.1145427989490394</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1437564016181793</v>
+        <v>0.1437564016181794</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1030366913449996</v>
@@ -1652,40 +1652,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07060155006710656</v>
+        <v>0.0703215665348931</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1022162136139512</v>
+        <v>0.1009853672908541</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1042952244932123</v>
+        <v>0.1037499509895467</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.133298603685528</v>
+        <v>0.1330701104470726</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09434520588601045</v>
+        <v>0.09262512494237973</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1261581695710918</v>
+        <v>0.1259953971791458</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1198751428609108</v>
+        <v>0.1200789074993194</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1513843271827037</v>
+        <v>0.1509620813084449</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.08438834873613438</v>
+        <v>0.0839494883795797</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1180323804693487</v>
+        <v>0.1178892608414724</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.115997860905444</v>
+        <v>0.1161731739916131</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1446196008605768</v>
+        <v>0.1452817143800274</v>
       </c>
     </row>
     <row r="27">
@@ -1696,40 +1696,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08872081548127093</v>
+        <v>0.08862195580850631</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1244125020809493</v>
+        <v>0.1250561437335867</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1258309598218785</v>
+        <v>0.1265692479158909</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1553100516324988</v>
+        <v>0.1552271811126218</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1145409934477128</v>
+        <v>0.1148835484861753</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1501855654183326</v>
+        <v>0.150469353745182</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1440244981741692</v>
+        <v>0.144835958759313</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1695020821135091</v>
+        <v>0.1700516201816058</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.09883244104123255</v>
+        <v>0.09812422392078991</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1341844448591491</v>
+        <v>0.1345302423381009</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1318295483419056</v>
+        <v>0.13103600363399</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1597229421799662</v>
+        <v>0.160008040615473</v>
       </c>
     </row>
     <row r="28">
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1122</v>
+        <v>1092</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2068</v>
+        <v>1898</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1128</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7">
@@ -2043,36 +2043,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9671</v>
+        <v>9133</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>5892</v>
+        <v>5279</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>6463</v>
+        <v>6212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5866</v>
+        <v>6589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>4901</v>
+        <v>3608</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16204</v>
+        <v>15244</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10996</v>
+        <v>11051</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>6085</v>
+        <v>6815</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8420</v>
+        <v>6236</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>14951</v>
+        <v>14529</v>
       </c>
     </row>
     <row r="8">
@@ -2175,40 +2175,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1859</v>
+        <v>1864</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8589</v>
+        <v>9464</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6343</v>
+        <v>6239</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1595</v>
+        <v>1640</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5767</v>
+        <v>5103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3608</v>
+        <v>3206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3949</v>
+        <v>3942</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5670</v>
+        <v>5650</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9205</v>
+        <v>8895</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>15339</v>
+        <v>15477</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12714</v>
+        <v>12869</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9496</v>
+        <v>8998</v>
       </c>
     </row>
     <row r="11">
@@ -2219,40 +2219,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10551</v>
+        <v>10554</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26202</v>
+        <v>26122</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22604</v>
+        <v>21348</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14114</v>
+        <v>14564</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>20615</v>
+        <v>19744</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16679</v>
+        <v>16615</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15298</v>
+        <v>15969</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18245</v>
+        <v>17802</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26467</v>
+        <v>26065</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>36505</v>
+        <v>36889</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>32747</v>
+        <v>31164</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>26675</v>
+        <v>27773</v>
       </c>
     </row>
     <row r="12">
@@ -2355,40 +2355,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18533</v>
+        <v>19312</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>27818</v>
+        <v>28517</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20292</v>
+        <v>21284</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21287</v>
+        <v>20869</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16710</v>
+        <v>16362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18602</v>
+        <v>18659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>11015</v>
+        <v>11196</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6791</v>
+        <v>6753</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>39581</v>
+        <v>39761</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>52077</v>
+        <v>53187</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>36473</v>
+        <v>35226</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31718</v>
+        <v>31214</v>
       </c>
     </row>
     <row r="15">
@@ -2399,40 +2399,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>39731</v>
+        <v>40823</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>52302</v>
+        <v>54491</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43479</v>
+        <v>44031</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>44965</v>
+        <v>44986</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>37112</v>
+        <v>36529</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>39770</v>
+        <v>40621</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27097</v>
+        <v>27310</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17778</v>
+        <v>17746</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>68938</v>
+        <v>68544</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>84767</v>
+        <v>85326</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>63312</v>
+        <v>62340</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>57702</v>
+        <v>55535</v>
       </c>
     </row>
     <row r="16">
@@ -2535,40 +2535,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>41108</v>
+        <v>40427</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>42084</v>
+        <v>42732</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49333</v>
+        <v>51108</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>79151</v>
+        <v>80508</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31167</v>
+        <v>31125</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>59958</v>
+        <v>58639</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>54617</v>
+        <v>52011</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>61129</v>
+        <v>61271</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>78673</v>
+        <v>78108</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>110892</v>
+        <v>108374</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>112988</v>
+        <v>112707</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>148882</v>
+        <v>146985</v>
       </c>
     </row>
     <row r="19">
@@ -2579,40 +2579,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>69986</v>
+        <v>68601</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>71106</v>
+        <v>74567</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>81861</v>
+        <v>83707</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>115147</v>
+        <v>118340</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>55891</v>
+        <v>55576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>95652</v>
+        <v>95403</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>86142</v>
+        <v>85410</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>87646</v>
+        <v>87011</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>115300</v>
+        <v>115294</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>156978</v>
+        <v>154797</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>157043</v>
+        <v>157204</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>194627</v>
+        <v>195412</v>
       </c>
     </row>
     <row r="20">
@@ -2715,40 +2715,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55875</v>
+        <v>54205</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>67471</v>
+        <v>66285</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>76718</v>
+        <v>78711</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>120695</v>
+        <v>121918</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>70738</v>
+        <v>70005</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>96307</v>
+        <v>96432</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>100392</v>
+        <v>101244</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>134710</v>
+        <v>135536</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>133147</v>
+        <v>131064</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>173031</v>
+        <v>175289</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>186333</v>
+        <v>188971</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>265947</v>
+        <v>265832</v>
       </c>
     </row>
     <row r="23">
@@ -2759,40 +2759,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>83875</v>
+        <v>83494</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>102929</v>
+        <v>100432</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>114388</v>
+        <v>115329</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>158751</v>
+        <v>160573</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>103093</v>
+        <v>102567</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>133466</v>
+        <v>133424</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>142635</v>
+        <v>140504</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>168676</v>
+        <v>169129</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>176107</v>
+        <v>175772</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>226468</v>
+        <v>227654</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>241289</v>
+        <v>244465</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>317346</v>
+        <v>318365</v>
       </c>
     </row>
     <row r="24">
@@ -2895,40 +2895,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>45441</v>
+        <v>45042</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>96239</v>
+        <v>95420</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>89441</v>
+        <v>89470</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>105269</v>
+        <v>104810</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>79831</v>
+        <v>80959</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>105294</v>
+        <v>105399</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>99154</v>
+        <v>99479</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>140433</v>
+        <v>140905</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>132469</v>
+        <v>135074</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>210553</v>
+        <v>210061</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>201382</v>
+        <v>199671</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>255310</v>
+        <v>255595</v>
       </c>
     </row>
     <row r="27">
@@ -2939,40 +2939,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>71166</v>
+        <v>70694</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>131362</v>
+        <v>131733</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>122766</v>
+        <v>122459</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>135740</v>
+        <v>136582</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>112132</v>
+        <v>113566</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>143173</v>
+        <v>142913</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>135915</v>
+        <v>135524</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>169522</v>
+        <v>170205</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>173968</v>
+        <v>173504</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>262810</v>
+        <v>262523</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>247707</v>
+        <v>247526</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>297138</v>
+        <v>298333</v>
       </c>
     </row>
     <row r="28">
@@ -3075,40 +3075,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>33273</v>
+        <v>32928</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>66339</v>
+        <v>66511</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>67547</v>
+        <v>67898</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>98584</v>
+        <v>99674</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>70145</v>
+        <v>70465</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>119651</v>
+        <v>118643</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>114999</v>
+        <v>115690</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>175092</v>
+        <v>176915</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>109766</v>
+        <v>112496</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>192256</v>
+        <v>194771</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>188937</v>
+        <v>190994</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>283164</v>
+        <v>283417</v>
       </c>
     </row>
     <row r="31">
@@ -3119,40 +3119,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>57060</v>
+        <v>56705</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>99022</v>
+        <v>98782</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>94714</v>
+        <v>93517</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>125588</v>
+        <v>126177</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>103591</v>
+        <v>105180</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>157600</v>
+        <v>156449</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>157942</v>
+        <v>159530</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>207919</v>
+        <v>208297</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>153624</v>
+        <v>152966</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>245184</v>
+        <v>246045</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>239174</v>
+        <v>241323</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>325333</v>
+        <v>325962</v>
       </c>
     </row>
     <row r="32">
@@ -3255,40 +3255,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>231329</v>
+        <v>230412</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>350128</v>
+        <v>345912</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>354014</v>
+        <v>352164</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>469752</v>
+        <v>468947</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>318811</v>
+        <v>312999</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>448505</v>
+        <v>447926</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>424902</v>
+        <v>425625</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>564071</v>
+        <v>562497</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>561667</v>
+        <v>558746</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>823921</v>
+        <v>822922</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>804897</v>
+        <v>806113</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1048512</v>
+        <v>1053313</v>
       </c>
     </row>
     <row r="35">
@@ -3299,40 +3299,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>290698</v>
+        <v>290374</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>426159</v>
+        <v>428364</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>427114</v>
+        <v>429620</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>547321</v>
+        <v>547029</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>387057</v>
+        <v>388214</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>533924</v>
+        <v>534933</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>510501</v>
+        <v>513377</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>631579</v>
+        <v>633626</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>657803</v>
+        <v>653089</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>936670</v>
+        <v>939084</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>914751</v>
+        <v>909245</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1158014</v>
+        <v>1160081</v>
       </c>
     </row>
     <row r="36">
